--- a/Other Material/Hours Spent.xlsx
+++ b/Other Material/Hours Spent.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>4h30m</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,140 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -226,13 +362,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:D21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:D21" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D21"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Day"/>
-    <tableColumn id="2" name="Domenico"/>
-    <tableColumn id="3" name="Caio"/>
-    <tableColumn id="4" name="Matheus"/>
+    <tableColumn id="1" name="Day" dataDxfId="3"/>
+    <tableColumn id="2" name="Domenico" dataDxfId="2"/>
+    <tableColumn id="3" name="Caio" dataDxfId="1"/>
+    <tableColumn id="4" name="Matheus" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -538,16 +674,16 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.375"/>
-    <col min="3" max="3" width="8.625"/>
-    <col min="4" max="4" width="9.875"/>
-    <col min="5" max="5" width="9.375"/>
-    <col min="6" max="1025" width="8.625"/>
+    <col min="1" max="2" width="10.42578125"/>
+    <col min="3" max="3" width="8.5703125"/>
+    <col min="4" max="4" width="9.85546875"/>
+    <col min="5" max="5" width="9.42578125"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,41 +760,71 @@
       <c r="A6" s="4">
         <v>42672</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>42673</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>42674</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42675</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>42676</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">

--- a/Other Material/Hours Spent.xlsx
+++ b/Other Material/Hours Spent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>Day</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -308,23 +311,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -362,7 +365,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:D21" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:D21" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D21"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Day" dataDxfId="3"/>
@@ -674,7 +677,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,9 +833,15 @@
       <c r="A11" s="4">
         <v>42677</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
